--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C14562C-79E2-40E1-8579-8B170FD0F8C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ED8E45-B96F-40A0-9033-B4C165F448A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proto" sheetId="1" r:id="rId1"/>
     <sheet name="Prod" sheetId="2" r:id="rId2"/>
+    <sheet name="UtiliPi Mini" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="75">
   <si>
     <t>MCP23017</t>
   </si>
@@ -228,6 +229,30 @@
   </si>
   <si>
     <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>E73-2G4M04S1B</t>
+  </si>
+  <si>
+    <t>nrf52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antenne </t>
+  </si>
+  <si>
+    <t>PRIX/UTILIPI</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32956761492.html?spm=a2g0s.12269583.0.0.5b0d6a35Tcdu8C</t>
+  </si>
+  <si>
+    <t>Connecteur antenne</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32909354468.html?spm=a2g0s.9042311.0.0.416a6c37YIgJxZ</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32893936047.html?spm=a2g0s.9042311.0.0.416a6c37YIgJxZ</t>
   </si>
 </sst>
 </file>
@@ -237,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +274,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,13 +307,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1138,7 +1171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF13576-E614-4B7E-B2B2-32760C287A36}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1763,4 +1798,472 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B7A591-D52B-4EC4-97F4-D0FCC77B0CD9}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1">
+        <f>SUM(E3:E18)</f>
+        <v>13.723000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.056</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3*C3</f>
+        <v>4.056</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4*C4</f>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E17" si="0">D5*C5</f>
+        <v>2.34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.38</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.317</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.317</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.121</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.184</v>
+      </c>
+      <c r="F15" s="2">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0850000000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="1">
+        <f>D18*C18</f>
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{C532BBD3-FBB3-47CF-82E4-F910277B330C}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{40CB9CBA-B746-4875-9510-8A9298BE7C0F}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{FEBB6B66-A1EE-414D-A34F-E1F2EA1B1548}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{879118A8-A7A4-458D-B5D4-A774F56966E6}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{E66CDEB8-9930-4079-9C2A-79F621A3D89A}"/>
+    <hyperlink ref="I8" r:id="rId6" xr:uid="{56AAEE23-E804-4D12-8906-116D82AD8E76}"/>
+    <hyperlink ref="H6" r:id="rId7" display="https://fr.aliexpress.com/item/10-pi-ces-A247-ACPL-247-ACPL-247-500E-SOP-16/32955236841.html?spm=a2g0w.search0104.3.16.707111c1ujGnm8&amp;transAbTest=ae803_4&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_2_10065_10068_319_10892_317_10696_10084_453_454_10083_10618_10304_10307_10820_10821_537_10302_536_10843_10059_10884_10887_321_322_10103%2Csearchweb201603_53%2CppcSwitch_0&amp;algo_pvid=e5817ce0-75d4-47e1-b574-21c6ed1cfae7&amp;algo_expid=e5817ce0-75d4-47e1-b574-21c6ed1cfae7-2" xr:uid="{FF672AFA-E658-40A6-90BB-18F1AEC994DB}"/>
+    <hyperlink ref="H7" r:id="rId8" xr:uid="{25394EA1-16FD-4D93-992C-3277998A6D4B}"/>
+    <hyperlink ref="H14" r:id="rId9" xr:uid="{6FF27D0D-AB86-41E9-AA7E-065E2730B5CC}"/>
+    <hyperlink ref="H3" r:id="rId10" xr:uid="{D18EA1AB-6849-4BB1-8F8B-AFE1404D8795}"/>
+    <hyperlink ref="H4" r:id="rId11" xr:uid="{01EC3327-5979-4561-8542-DF5FF68926C4}"/>
+    <hyperlink ref="H5" r:id="rId12" xr:uid="{284A2DFF-E17A-4C1D-81FC-5E918F464FC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+</worksheet>
 </file>